--- a/files/SM1/K6/K6-P149-T1.xlsx
+++ b/files/SM1/K6/K6-P149-T1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F33758E-298A-4CCD-B715-22028A6EEAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0130F07F-AEFD-41EF-8F77-4B8971F48ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="3860" windowWidth="17720" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="3140" windowWidth="17720" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
   <si>
     <t>asuntoilmoitus</t>
   </si>
@@ -466,6 +466,22 @@
   </si>
   <si>
     <t>although</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erikoinen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melkoinen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1439,6 +1455,22 @@
         <v>146</v>
       </c>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
